--- a/Hardcoded_List.xlsx
+++ b/Hardcoded_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aallen\Documents\GitHub\geojson-modelica-translator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6DBF6E-2302-4713-8B25-A363033CD3C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F50317C-493C-48D9-A681-9A71139963B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4B8D979D-310B-4374-86FE-FAA14D45506B}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t>File</t>
   </si>
@@ -169,13 +169,142 @@
   </si>
   <si>
     <t>TimeSeries_Instance.mopt</t>
+  </si>
+  <si>
+    <t>geojson-modelica-translator\geojson_modelica_translator\model_connectors\networks\templates</t>
+  </si>
+  <si>
+    <t>Network2Pipe_Instance.mopt</t>
+  </si>
+  <si>
+    <t>Differential pressure setpoint</t>
+  </si>
+  <si>
+    <t>Scaling factors between building and district dP values</t>
+  </si>
+  <si>
+    <t>Not clear how extensible these scaling factors are</t>
+  </si>
+  <si>
+    <t>CHW supply temp</t>
+  </si>
+  <si>
+    <t>NetworkChilledWaterStub_Instance.mopt</t>
+  </si>
+  <si>
+    <t>Will these stub files be used long-term? If not, probably not a high priority.</t>
+  </si>
+  <si>
+    <t>HHW supply temp</t>
+  </si>
+  <si>
+    <t>NetworkHeatedWaterStub_Instance.mopt</t>
+  </si>
+  <si>
+    <t>Criteria for prioritization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard-coded values for staging or scaling factors </t>
+  </si>
+  <si>
+    <t>Hard-coded values for parameters directly related to intensive properties, such as temperature or pressure setpoints</t>
+  </si>
+  <si>
+    <t>Cases where de-hardcoding should wait for further development of the GMT</t>
+  </si>
+  <si>
+    <t>geojson-modelica-translator\geojson_modelica_translator\model_connectors\plants\templates</t>
+  </si>
+  <si>
+    <t>BoilerStage.mo</t>
+  </si>
+  <si>
+    <t>Scaling factors for boiler staging</t>
+  </si>
+  <si>
+    <t>Maximum # of chillers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This might be inherent to the modeling approach--do we want to consider a different approach in the future that would allow for more chillers, or not have a maximum # enforced? </t>
+  </si>
+  <si>
+    <t>CentralCoolingPlant.mot</t>
+  </si>
+  <si>
+    <t>Maximum # of boilers</t>
+  </si>
+  <si>
+    <t>CentralHeatingPlant.mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This might be inherent to the modeling approach--do we want to consider a different approach in the future that would allow for more boilers,  or not have a maximum # enforced? </t>
+  </si>
+  <si>
+    <t>Valve nominal pressure drop</t>
+  </si>
+  <si>
+    <t>Not clear how influential this parameter is--if not, it may not be a high priority. Perhaps this parameter could be set the way valve dP is set for the central cooling plant.</t>
+  </si>
+  <si>
+    <t>ChilledWaterPumpSpeed.mo</t>
+  </si>
+  <si>
+    <t>Maximum number of CHW pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This might be inherent to the modeling approach--do we want to consider a different approach in the future that would allow for more pumps, or not have a maximum # enforced? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChillerStage.mo </t>
+  </si>
+  <si>
+    <t>Scaling factors for chiller staging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if we keep this non-configurable by the user, the value could be linked through a variable across the several .mo files related to the plant, to make it easier for the developers to modify in the future. </t>
+  </si>
+  <si>
+    <t>CoolingPlant_Instance.mopt</t>
+  </si>
+  <si>
+    <t>Various temperature and differential pressure setpoints, and temperature differential across the evaporator, as well as the ratio of the min/max mass flow rate for the chiller</t>
+  </si>
+  <si>
+    <t>Minimum mass flow rate ratio is probably a lower priority for dehardcoding, cf the other parameters in this file.</t>
+  </si>
+  <si>
+    <t>CoolingTowerParallel.mo</t>
+  </si>
+  <si>
+    <t>This might be inherent to the modeling approach--do we want to consider a different approach in the future that would allow for more cooling towers, or not have a maximum enforced?</t>
+  </si>
+  <si>
+    <t>Maximum # of cooling towers</t>
+  </si>
+  <si>
+    <t>Design water-air ratio</t>
+  </si>
+  <si>
+    <t>CoolingTowerWithBypass.mo</t>
+  </si>
+  <si>
+    <t>HeatingPlant_Instance.mopt</t>
+  </si>
+  <si>
+    <t>Various temperature setpoints and differentials, pressure differentials, and the ratio of min to max flow for the boiler</t>
+  </si>
+  <si>
+    <t>HeatingWaterPumpSpeed.mo</t>
+  </si>
+  <si>
+    <t>Maximum number of HHW pumps and min flow rate ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,12 +319,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -571,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D0C24-4BFC-4717-A7C5-760F08DA5311}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,9 +708,10 @@
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,214 +731,598 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>"5-52"</f>
+        <v>5-52</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>"8-31"</f>
+        <v>8-31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="6">
+        <v>132</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D8" s="6" t="str">
         <f>"3-5"</f>
         <v>3-5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D9" s="6" t="str">
         <f>"17-88"</f>
         <v>17-88</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D10" s="6" t="str">
         <f>"12-13"</f>
         <v>12-13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D11" s="9" t="str">
         <f>"6-15"</f>
         <v>6-15</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D12" s="8" t="str">
         <f>"7-19"</f>
         <v>7-19</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>"27"</f>
+        <v>27</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>"23"</f>
+        <v>23</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>"8-9"</f>
+        <v>8-9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>"5-6, 15"</f>
+        <v>5-6, 15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>"5-6"</f>
+        <v>5-6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f>"8-10"</f>
+        <v>8-10</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>"108-109"</f>
+        <v>108-109</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>"12-17"</f>
+        <v>12-17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D21" s="8" t="str">
         <f>"1-2"</f>
         <v>1-2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="22" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D22" s="4" t="str">
         <f>"5-30"</f>
         <v>5-30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="24" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D24" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="25" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>"6-7"</f>
+        <v>6-7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>"8-9"</f>
+        <v>8-9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>"7-9"</f>
+        <v>7-9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f>"6-7"</f>
+        <v>6-7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D29" s="5">
         <v>62</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="30" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Hardcoded_List.xlsx
+++ b/Hardcoded_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aallen\Documents\GitHub\geojson-modelica-translator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F50317C-493C-48D9-A681-9A71139963B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B8A46-FD96-433E-B9B4-7505BC39AB6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4B8D979D-310B-4374-86FE-FAA14D45506B}"/>
   </bookViews>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D0C24-4BFC-4717-A7C5-760F08DA5311}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="H2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -709,6 +709,7 @@
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="15.08984375" customWidth="1"/>
     <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -751,8 +752,11 @@
       <c r="F2" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -772,6 +776,12 @@
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -792,6 +802,12 @@
       <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -812,11 +828,14 @@
       <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -835,12 +854,8 @@
       <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -858,12 +873,6 @@
       <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -883,12 +892,6 @@
       <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -907,6 +910,8 @@
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -925,6 +930,8 @@
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">

--- a/Hardcoded_List.xlsx
+++ b/Hardcoded_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aallen\Documents\GitHub\geojson-modelica-translator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B8A46-FD96-433E-B9B4-7505BC39AB6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC352F8-8827-4C71-B155-8E8B773FFA0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4B8D979D-310B-4374-86FE-FAA14D45506B}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>File</t>
   </si>
@@ -231,15 +231,9 @@
     <t>CentralCoolingPlant.mot</t>
   </si>
   <si>
-    <t>Maximum # of boilers</t>
-  </si>
-  <si>
     <t>CentralHeatingPlant.mo</t>
   </si>
   <si>
-    <t xml:space="preserve">This might be inherent to the modeling approach--do we want to consider a different approach in the future that would allow for more boilers,  or not have a maximum # enforced? </t>
-  </si>
-  <si>
     <t>Valve nominal pressure drop</t>
   </si>
   <si>
@@ -276,12 +270,6 @@
     <t>CoolingTowerParallel.mo</t>
   </si>
   <si>
-    <t>This might be inherent to the modeling approach--do we want to consider a different approach in the future that would allow for more cooling towers, or not have a maximum enforced?</t>
-  </si>
-  <si>
-    <t>Maximum # of cooling towers</t>
-  </si>
-  <si>
     <t>Design water-air ratio</t>
   </si>
   <si>
@@ -298,6 +286,27 @@
   </si>
   <si>
     <t>Maximum number of HHW pumps and min flow rate ratio</t>
+  </si>
+  <si>
+    <t>Number of chillers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that the maximum # of chillers could be addressed as well if the modeling structure supports making that flexible. </t>
+  </si>
+  <si>
+    <t>No. of cooling towers</t>
+  </si>
+  <si>
+    <t>No. of boilers</t>
+  </si>
+  <si>
+    <t>Number of HHW pumps</t>
+  </si>
+  <si>
+    <t>Number of CHW pumps</t>
+  </si>
+  <si>
+    <t>Note that the maximum # of pumps could also be addressed, if compatible with the modeling approach to make the maximum # more flexible.</t>
   </si>
 </sst>
 </file>
@@ -694,15 +703,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D0C24-4BFC-4717-A7C5-760F08DA5311}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="H2:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="46.36328125" customWidth="1"/>
     <col min="2" max="2" width="18.6328125" customWidth="1"/>
     <col min="3" max="3" width="20.54296875" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
@@ -732,378 +741,381 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>"7-9"</f>
+        <v>7-9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>"5-6"</f>
+        <v>5-6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>"5-6"</f>
+        <v>5-6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>"6-7"</f>
+        <v>6-7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>"6-7"</f>
+        <v>6-7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>"8-9"</f>
+        <v>8-9</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="6" t="str">
         <f>"5-52"</f>
         <v>5-52</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="232" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="6" t="str">
+      <c r="E8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6" t="str">
         <f>"8-31"</f>
         <v>8-31</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D10" s="6">
         <v>132</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D11" s="6">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D12" s="6">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D13" s="6">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D14" s="6" t="str">
         <f>"3-5"</f>
         <v>3-5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D15" s="6" t="str">
         <f>"17-88"</f>
         <v>17-88</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D16" s="6" t="str">
         <f>"12-13"</f>
         <v>12-13</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D17" s="9" t="str">
         <f>"6-15"</f>
         <v>6-15</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D18" s="8" t="str">
         <f>"7-19"</f>
         <v>7-19</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f>"27"</f>
-        <v>27</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f>"23"</f>
-        <v>23</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f>"8-9"</f>
-        <v>8-9</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f>"5-6, 15"</f>
-        <v>5-6, 15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f>"5-6"</f>
-        <v>5-6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="8" t="str">
-        <f>"8-10"</f>
-        <v>8-10</v>
-      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f>"108-109"</f>
-        <v>108-109</v>
+        <f>"27"</f>
+        <v>27</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
@@ -1112,224 +1124,281 @@
     </row>
     <row r="20" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>"23"</f>
+        <v>23</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>"8-9"</f>
+        <v>8-9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f>"5-6, 15"</f>
+        <v>5-6, 15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>"5-6"</f>
+        <v>5-6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>"8-10"</f>
+        <v>8-10</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>"108-109"</f>
+        <v>108-109</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D26" s="8" t="str">
         <f>"12-17"</f>
         <v>12-17</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="27" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D27" s="8" t="str">
         <f>"1-2"</f>
         <v>1-2</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="28" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D28" s="4" t="str">
         <f>"5-30"</f>
         <v>5-30</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="29" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D29" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="30" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D30" s="5">
         <v>4</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f>"6-7"</f>
-        <v>6-7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f>"8-9"</f>
-        <v>8-9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="31" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D31" s="5" t="str">
         <f>"7-9"</f>
         <v>7-9</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="5" t="str">
-        <f>"6-7"</f>
-        <v>6-7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="1" t="s">
+    <row r="32" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="5">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="5">
-        <v>62</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="33" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
